--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله محمد كمال محمدالدسوقى على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah Mohamed Kamal Mohamed Al desoky Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1210106</x:t>
@@ -551,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -860,7 +851,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.860625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.890625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.330625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1454,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45912.2895748843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1486,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.2895748843</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45912.2893401968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.2893401968</x:v>
+        <x:v>45909.4274460648</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4274460648</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45909.4151246528</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4151246528</x:v>
+        <x:v>45909.415438044</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.415438044</x:v>
+        <x:v>45909.4209232639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4209232639</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45909.4234533912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4234533912</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2309,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45912.2896319792</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2335,38 +2326,6 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45912.2896319792</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
-    <x:t>1220229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة عمرو مصطفى عبد الصالح عرابي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jumana Amr Moustafa Abd ElSaleh Orabi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210098</x:t>
   </x:si>
   <x:si>
@@ -60,6 +51,15 @@
     <x:t>Jumana Ahmed Mohamed El-Ashry</x:t>
   </x:si>
   <x:si>
+    <x:t>1210215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبة وليد أحمد ابراهيم حمودة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230192</x:t>
   </x:si>
   <x:si>
@@ -168,13 +168,13 @@
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
-    <x:t>1210246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طارق وليد فتحي محمد عارف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
+    <x:t>1220063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن أسامة حسين محمد حماد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Osama Hussien Mohamed Hammad</x:t>
   </x:si>
   <x:si>
     <x:t>1210106</x:t>
@@ -213,6 +213,15 @@
     <x:t>Omar Nabil Shehata Mohamed Habib</x:t>
   </x:si>
   <x:si>
+    <x:t>1210269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mohamed Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210271</x:t>
   </x:si>
   <x:si>
@@ -222,15 +231,6 @@
     <x:t>AMROU AHMED SAFWAT AHMED ABDELMAWLA</x:t>
   </x:si>
   <x:si>
-    <x:t>1210273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو ياسر سيد محمود دومة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Yasser Sayed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220132</x:t>
   </x:si>
   <x:si>
@@ -303,15 +303,6 @@
     <x:t>Mahmoud Amr Mohamed Adly Abdel-Halim Raslan</x:t>
   </x:si>
   <x:si>
-    <x:t>4220142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد عبدالفتاح السيد متولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210077</x:t>
   </x:si>
   <x:si>
@@ -330,15 +321,6 @@
     <x:t>Malak Ahmed Hosny</x:t>
   </x:si>
   <x:si>
-    <x:t>1210084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهراتى سامح ميلاد بباوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mehrati Sameh Milad Bebawy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210085</x:t>
   </x:si>
   <x:si>
@@ -400,33 +382,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed Afify Mansour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد محمد عوض حسن اللقانى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yousef ahmed mohamed awad hassan ellakany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2220010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حسانين احمد على السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hassanein Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف رأفت فتحى محمد حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Rafaat fathey mohamed Hussien</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -542,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -851,8 +806,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.860625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.330625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.420625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -965,7 +920,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4155006597</x:v>
+        <x:v>45906.4155689815</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -997,7 +952,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4155689815</x:v>
+        <x:v>45927.4252511227</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1413,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45927.4230684375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1573,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1893,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45909.4234533912</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4234533912</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2104,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2166,166 +2121,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45906.6657106829</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.4144693287</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45906.4156043171</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45906.4152550116</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45912.2896319792</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Saif Hesham Abdelaziz Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شهاب طارق حلمي الحضري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
     <x:t>1220063</x:t>
@@ -497,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1336,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4146051273</x:v>
+        <x:v>45927.4230684375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4230684375</x:v>
+        <x:v>45912.2895748843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.2895748843</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45912.2893401968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2893401968</x:v>
+        <x:v>45909.4274460648</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1487,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4274460648</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4145026273</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45909.4151246528</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4151246528</x:v>
+        <x:v>45909.415438044</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.415438044</x:v>
+        <x:v>45909.4209232639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4209232639</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45909.4234533912</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4234533912</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2063,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2089,38 +2080,6 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45906.4144693287</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
   </x:si>
   <x:si>
     <x:t>1210120</x:t>
@@ -488,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1967,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2048,38 +2039,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.4144693287</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -159,6 +159,15 @@
     <x:t>Saif Hesham Abdelaziz Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>4220121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه طارق عمر طلبه زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220063</x:t>
   </x:si>
   <x:si>
@@ -177,15 +186,6 @@
     <x:t>Omar ahmed mohamed refaat el sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>4220130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر خالد سيف الله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omr Khaled Seif Allah Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210107</x:t>
   </x:si>
   <x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
   </x:si>
   <x:si>
     <x:t>1210120</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1318,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4230684375</x:v>
+        <x:v>45929.6172015046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.2895748843</x:v>
+        <x:v>45927.4230684375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45912.2895748843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45929.4130815162</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45906.4144693287</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>salsabeel mostafa ragaa mohamad al alkitkat</x:t>
   </x:si>
   <x:si>
-    <x:t>1210056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد عيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Eid Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200172</x:t>
   </x:si>
   <x:si>
@@ -222,15 +213,6 @@
     <x:t>AMROU AHMED SAFWAT AHMED ABDELMAWLA</x:t>
   </x:si>
   <x:si>
-    <x:t>4220132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>غادة طارق على البغدادى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ghada Tarek Ali  El-Boghdady</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230162</x:t>
   </x:si>
   <x:si>
@@ -301,15 +283,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud mohammed mahmoud nasr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك احمد حسنى محمد عبد الرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malak Ahmed Hosny</x:t>
   </x:si>
   <x:si>
     <x:t>1210085</x:t>
@@ -488,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1199,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45906.415921331</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.415921331</x:v>
+        <x:v>45912.2894774653</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.2894774653</x:v>
+        <x:v>45909.4199774653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4199774653</x:v>
+        <x:v>45929.6172015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45929.6172015046</x:v>
+        <x:v>45927.4230684375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4230684375</x:v>
+        <x:v>45912.2895748843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.2895748843</x:v>
+        <x:v>45912.2893401968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.2893401968</x:v>
+        <x:v>45909.4274460648</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4274460648</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4145026273</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45909.4151246528</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45909.415438044</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4151246528</x:v>
+        <x:v>45909.4209232639</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.415438044</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4209232639</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45909.4234533912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4234533912</x:v>
+        <x:v>45929.4130815162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45929.4130815162</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1984,102 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45909.4249810185</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.6657106829</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.4144693287</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>Zeyad Khaled Badry Jadallah</x:t>
   </x:si>
   <x:si>
-    <x:t>1210171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلسبيل مصطفى رجاء محمد القطقاط</x:t>
-  </x:si>
-  <x:si>
-    <x:t>salsabeel mostafa ragaa mohamad al alkitkat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200172</x:t>
   </x:si>
   <x:si>
@@ -312,15 +303,6 @@
     <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
   </x:si>
   <x:si>
-    <x:t>1210359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210120</x:t>
   </x:si>
   <x:si>
@@ -337,15 +319,6 @@
   </x:si>
   <x:si>
     <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد عفيفي منصور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Afify Mansour</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -461,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1140,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145134259</x:v>
+        <x:v>45906.415921331</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.415921331</x:v>
+        <x:v>45912.2894774653</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.2894774653</x:v>
+        <x:v>45909.4199774653</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4199774653</x:v>
+        <x:v>45929.6172015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45929.6172015046</x:v>
+        <x:v>45927.4230684375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4230684375</x:v>
+        <x:v>45912.2895748843</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.2895748843</x:v>
+        <x:v>45912.2893401968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.2893401968</x:v>
+        <x:v>45909.4274460648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4274460648</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4145026273</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45909.4151246528</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4151246528</x:v>
+        <x:v>45909.415438044</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.415438044</x:v>
+        <x:v>45909.4209232639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4209232639</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45909.4234533912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4234533912</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45929.4130815162</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,102 +1835,6 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45909.4249810185</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.6657106829</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.4144693287</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1970,9 +1847,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Bioinformatics I (SBES375) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -285,15 +285,6 @@
     <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى عمر صالح محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Omar Saleh Mohammad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210087</x:t>
   </x:si>
   <x:si>
@@ -319,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد عوض حسن اللقانى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yousef ahmed mohamed awad hassan ellakany</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1721,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45932.4470547106</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>

--- a/downloaded_files/SBES375_Tutorial-35856.xlsx
+++ b/downloaded_files/SBES375_Tutorial-35856.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>omar sameh ramadan ali mansour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام محروس مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Mahrous Mabrouk</x:t>
   </x:si>
   <x:si>
     <x:t>1210370</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4274460648</x:v>
+        <x:v>45935.5060752662</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4145026273</x:v>
+        <x:v>45909.4274460648</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4151246528</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.415438044</x:v>
+        <x:v>45909.4151246528</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4209232639</x:v>
+        <x:v>45909.415438044</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45909.4209232639</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4234533912</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4497704861</x:v>
+        <x:v>45909.4234533912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4249810185</x:v>
+        <x:v>45906.4497704861</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45909.4249810185</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45932.4470547106</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45932.4470547106</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
